--- a/PASS/PASS 10-11-25.xlsx
+++ b/PASS/PASS 10-11-25.xlsx
@@ -628,7 +628,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
